--- a/va_facility_data_2025-02-20/Rochester Calkins VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rochester%20Calkins%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rochester Calkins VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rochester%20Calkins%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5e98999865ce4664baa7b7d20ebd932a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R76afc3d708394646ad4ea034ac4a13d5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd2f3a085852547399b3418f838c61e88"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R57371ca76bc44f14beecc65215db8424"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0748b9cdfa4045b2a0032187c597d792"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R326b032b91544af1958058c00ca251ff"/>
   </x:sheets>
 </x:workbook>
 </file>
